--- a/biology/Zoologie/Calumma_guillaumeti/Calumma_guillaumeti.xlsx
+++ b/biology/Zoologie/Calumma_guillaumeti/Calumma_guillaumeti.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Calumma guillaumeti est une espèce de sauriens de la famille des Chamaeleonidae[1].
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Calumma guillaumeti est une espèce de sauriens de la famille des Chamaeleonidae.
 </t>
         </is>
       </c>
@@ -511,9 +523,11 @@
           <t>Répartition</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar[1].
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est endémique du Nord-Est de Madagascar.
 </t>
         </is>
       </c>
@@ -542,9 +556,11 @@
           <t>Étymologie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Louis Guillaumet[2].
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Cette espèce est nommée en l'honneur de Jean-Louis Guillaumet.
 </t>
         </is>
       </c>
@@ -573,7 +589,9 @@
           <t>Publication originale</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>Brygoo, Blanc &amp; Domergue, 1974 "1973" : Notes sur les Chamaeleo de Madagascar. XII. Caméléons du Marojezy. C. peyrierasi n.sp. et C. gastrotaenia guillaumeti n.subsp. (Reptilia, Squamata, Chamaeleonidae). Bulletin de l'Académie Malgache, vol. 51, no 1, p. 151-166.</t>
         </is>
